--- a/biology/Zoologie/Hypsiglena_slevini/Hypsiglena_slevini.xlsx
+++ b/biology/Zoologie/Hypsiglena_slevini/Hypsiglena_slevini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypsiglena slevini  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypsiglena slevini  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la péninsule de Basse-Californie au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la péninsule de Basse-Californie au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Hypsiglena slevini[2], un mâle, mesure 217 mm dont 41 mm pour la queue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Hypsiglena slevini, un mâle, mesure 217 mm dont 41 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Hypsiglena slevini marcosensis (Ottley &amp; Tanner, 1978) - île de San Marcos
 Hypsiglena slevini slevini Tanner, 1943</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est nommée en l'honneur de Joseph Richard Slevin[2]. La sous-espèce Hypsiglena slevini marcosensis est nommée en référence au lieu de sa découverte, l'île de San Marcos.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est nommée en l'honneur de Joseph Richard Slevin. La sous-espèce Hypsiglena slevini marcosensis est nommée en référence au lieu de sa découverte, l'île de San Marcos.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ottley &amp; Tanner, 1978 : New range and a new subspecies for the snake Eridiphas slevini. Great Basin Naturalist, vol. 38, no 4, p. 406-410 (texte intégral).
 Tanner, 1943 : Two new species of Hypsiglena from western North America. Great Basin Naturalist, vol. 4, no 1-2, p. 49-54 (texte intégral).</t>
